--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3848.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3848.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9939342510155288</v>
+        <v>2.622546434402466</v>
       </c>
       <c r="B1">
-        <v>1.409704545055262</v>
+        <v>4.813064098358154</v>
       </c>
       <c r="C1">
-        <v>2.649947576243348</v>
+        <v>6.748772144317627</v>
       </c>
       <c r="D1">
-        <v>4.633667977003856</v>
+        <v>6.620687007904053</v>
       </c>
       <c r="E1">
-        <v>2.604410585747762</v>
+        <v>5.355889797210693</v>
       </c>
     </row>
   </sheetData>
